--- a/GaP thickness series.xlsx
+++ b/GaP thickness series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elf\Documents\GitHub\xrf-thickness-studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92964BB0-A187-4405-B1D2-D62641882DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB59F61-C652-4D60-AFF4-343F304A0AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{30E33E6E-91C0-4B0D-915F-08E95790EBAA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>sample number</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>BG included, d1</t>
+  </si>
+  <si>
+    <t>very inhomogenous</t>
   </si>
 </sst>
 </file>
@@ -267,6 +270,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>data!$B$3:$B$7</c:f>
@@ -901,6 +962,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>data!$B$3:$B$7</c:f>
@@ -4133,14 +4252,14 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4319,6 +4438,9 @@
       </c>
       <c r="B14">
         <v>450</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -4369,8 +4491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2848C461-DB02-413D-AC3C-422114C127E3}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GaP thickness series.xlsx
+++ b/GaP thickness series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elf\Documents\GitHub\xrf-thickness-studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB59F61-C652-4D60-AFF4-343F304A0AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB58CE5-D4CD-4F70-ACA9-5D8832DF9FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{30E33E6E-91C0-4B0D-915F-08E95790EBAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{30E33E6E-91C0-4B0D-915F-08E95790EBAA}"/>
   </bookViews>
   <sheets>
     <sheet name="GaP thickness series" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>sample number</t>
   </si>
@@ -116,6 +116,20 @@
   </si>
   <si>
     <t>very inhomogenous</t>
+  </si>
+  <si>
+    <r>
+      <t>P K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α intensity</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1046,7 +1060,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$F$3:$F$7</c:f>
+              <c:f>data!$G$3:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1363,7 +1377,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$G$3:$G$7</c:f>
+              <c:f>data!$H$3:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1579,6 +1593,351 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>290.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4854</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6061</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11507</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26453</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D35F-4BD8-9A6E-1162B2FF27D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="621838888"/>
+        <c:axId val="621835608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="621838888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="621835608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="621835608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="621838888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1739,6 +2098,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3803,17 +4202,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
@@ -3843,13 +4758,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
@@ -3879,13 +4794,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
@@ -3915,13 +4830,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
@@ -3944,6 +4859,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{387DA0A1-1E89-3E3C-0475-032C360E7AAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4251,7 +5202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C36829E-C274-49DF-95D4-E8318511F9CD}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -4489,10 +5440,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2848C461-DB02-413D-AC3C-422114C127E3}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4502,17 +5453,18 @@
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -4529,13 +5481,16 @@
         <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3158</v>
       </c>
@@ -4552,13 +5507,16 @@
         <v>340076</v>
       </c>
       <c r="F3">
+        <v>4854</v>
+      </c>
+      <c r="G3">
         <v>15115</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>340359</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2802</v>
       </c>
@@ -4572,13 +5530,16 @@
         <v>325113</v>
       </c>
       <c r="F4">
+        <v>6061</v>
+      </c>
+      <c r="G4">
         <v>18495</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>325371</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2808</v>
       </c>
@@ -4592,13 +5553,16 @@
         <v>317502</v>
       </c>
       <c r="F5">
+        <v>7168</v>
+      </c>
+      <c r="G5">
         <v>21941</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>317822</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2555</v>
       </c>
@@ -4615,13 +5579,16 @@
         <v>290865</v>
       </c>
       <c r="F6">
+        <v>11507</v>
+      </c>
+      <c r="G6">
         <v>35605</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>291108</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2546</v>
       </c>
@@ -4638,16 +5605,19 @@
         <v>208416</v>
       </c>
       <c r="F7">
+        <v>26453</v>
+      </c>
+      <c r="G7">
         <v>91449</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>208659</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GaP thickness series.xlsx
+++ b/GaP thickness series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elf\Documents\GitHub\xrf-thickness-studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB58CE5-D4CD-4F70-ACA9-5D8832DF9FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08462288-2D1F-4DA5-8A0F-2244B7723D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{30E33E6E-91C0-4B0D-915F-08E95790EBAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{30E33E6E-91C0-4B0D-915F-08E95790EBAA}"/>
   </bookViews>
   <sheets>
     <sheet name="GaP thickness series" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>sample number</t>
   </si>
@@ -5202,8 +5202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C36829E-C274-49DF-95D4-E8318511F9CD}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5211,8 +5211,9 @@
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5396,9 +5397,7 @@
       <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -5442,7 +5441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2848C461-DB02-413D-AC3C-422114C127E3}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>

--- a/GaP thickness series.xlsx
+++ b/GaP thickness series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elf\Documents\GitHub\xrf-thickness-studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08462288-2D1F-4DA5-8A0F-2244B7723D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED0EF72-7239-40F3-AF2E-C55CC9830960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{30E33E6E-91C0-4B0D-915F-08E95790EBAA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>sample number</t>
   </si>
@@ -5203,7 +5203,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5372,6 +5372,9 @@
       </c>
       <c r="B12">
         <v>250</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
       </c>
       <c r="F12" s="3"/>
     </row>

--- a/GaP thickness series.xlsx
+++ b/GaP thickness series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elf\Documents\GitHub\xrf-thickness-studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED0EF72-7239-40F3-AF2E-C55CC9830960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757A1796-9D72-4CD5-AAAB-257AC47EA6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{30E33E6E-91C0-4B0D-915F-08E95790EBAA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>sample number</t>
   </si>
@@ -157,12 +157,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -192,6 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5203,7 +5210,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5249,7 +5256,7 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -5261,7 +5268,7 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -5294,7 +5301,7 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -5321,9 +5328,7 @@
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -5362,9 +5367,7 @@
       <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -5376,7 +5379,7 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -5424,9 +5427,7 @@
       <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F16" s="6"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>

--- a/GaP thickness series.xlsx
+++ b/GaP thickness series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elf\Documents\GitHub\xrf-thickness-studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757A1796-9D72-4CD5-AAAB-257AC47EA6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD31DFD4-3FAB-4AC7-A9EB-89A280E81765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{30E33E6E-91C0-4B0D-915F-08E95790EBAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{30E33E6E-91C0-4B0D-915F-08E95790EBAA}"/>
   </bookViews>
   <sheets>
     <sheet name="GaP thickness series" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>sample number</t>
   </si>
@@ -157,18 +157,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -183,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -198,7 +192,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5209,8 +5202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C36829E-C274-49DF-95D4-E8318511F9CD}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5256,7 +5249,9 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -5268,7 +5263,9 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -5301,7 +5298,9 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -5328,7 +5327,9 @@
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -5367,7 +5368,9 @@
       <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -5379,7 +5382,9 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -5427,7 +5432,9 @@
       <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -5443,10 +5450,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2848C461-DB02-413D-AC3C-422114C127E3}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5526,6 +5533,9 @@
       <c r="B4">
         <v>51.5</v>
       </c>
+      <c r="C4">
+        <v>51.59</v>
+      </c>
       <c r="D4">
         <v>16549</v>
       </c>
@@ -5549,6 +5559,9 @@
       <c r="B5">
         <v>62.5</v>
       </c>
+      <c r="C5">
+        <v>62.31</v>
+      </c>
       <c r="D5">
         <v>19931</v>
       </c>
@@ -5599,7 +5612,7 @@
         <v>290.7</v>
       </c>
       <c r="C7">
-        <v>285.86</v>
+        <v>285.37</v>
       </c>
       <c r="D7">
         <v>89404</v>
@@ -5615,6 +5628,14 @@
       </c>
       <c r="H7">
         <v>208659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3076</v>
+      </c>
+      <c r="C8">
+        <v>547.4</v>
       </c>
     </row>
   </sheetData>

--- a/GaP thickness series.xlsx
+++ b/GaP thickness series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elf\Documents\GitHub\xrf-thickness-studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD31DFD4-3FAB-4AC7-A9EB-89A280E81765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB234A95-7420-4544-8145-E4696586B4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{30E33E6E-91C0-4B0D-915F-08E95790EBAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{30E33E6E-91C0-4B0D-915F-08E95790EBAA}"/>
   </bookViews>
   <sheets>
     <sheet name="GaP thickness series" sheetId="1" r:id="rId1"/>
@@ -5202,7 +5202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C36829E-C274-49DF-95D4-E8318511F9CD}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -5452,7 +5452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2848C461-DB02-413D-AC3C-422114C127E3}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/GaP thickness series.xlsx
+++ b/GaP thickness series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elf\Documents\GitHub\xrf-thickness-studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB234A95-7420-4544-8145-E4696586B4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C99688-3D5B-4B4B-8EA9-C0EA8A497B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{30E33E6E-91C0-4B0D-915F-08E95790EBAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{30E33E6E-91C0-4B0D-915F-08E95790EBAA}"/>
   </bookViews>
   <sheets>
     <sheet name="GaP thickness series" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>sample number</t>
   </si>
@@ -109,12 +109,6 @@
     </r>
   </si>
   <si>
-    <t>no BG, d1</t>
-  </si>
-  <si>
-    <t>BG included, d1</t>
-  </si>
-  <si>
     <t>very inhomogenous</t>
   </si>
   <si>
@@ -130,6 +124,18 @@
       </rPr>
       <t>α intensity</t>
     </r>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Bruker, no BG, d1</t>
+  </si>
+  <si>
+    <t>Bruker, BG included, d1</t>
+  </si>
+  <si>
+    <t>P K</t>
   </si>
 </sst>
 </file>
@@ -1608,6 +1614,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>XRR thickness v P</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> intensity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1693,8 +1729,38 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1722,24 +1788,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$F$3:$F$7</c:f>
+              <c:f>data!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4854</c:v>
+                  <c:v>41.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6061</c:v>
+                  <c:v>51.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7168</c:v>
+                  <c:v>62.31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11507</c:v>
+                  <c:v>106.59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26453</c:v>
+                  <c:v>285.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,7 +1813,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D35F-4BD8-9A6E-1162B2FF27D6}"/>
+              <c16:uniqueId val="{00000000-E480-4932-8F73-71EA2995F019}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1759,11 +1825,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="621838888"/>
-        <c:axId val="621835608"/>
+        <c:axId val="432808664"/>
+        <c:axId val="432803416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="621838888"/>
+        <c:axId val="432808664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,12 +1886,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621835608"/>
+        <c:crossAx val="432803416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="621835608"/>
+        <c:axId val="432803416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,7 +1948,413 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621838888"/>
+        <c:crossAx val="432808664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ellipsometry thickness v Ga intensity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>41.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>285.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>547.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16549</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>171488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5094-4ADB-8FE8-866C61F1E804}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="573700456"/>
+        <c:axId val="573704392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="573700456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573704392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="573704392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573700456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2138,6 +2610,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4203,6 +4715,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4867,22 +5895,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{387DA0A1-1E89-3E3C-0475-032C360E7AAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6009473F-92C2-8CF2-5A45-F0CB93016759}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4895,6 +5923,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6D784C-E49D-8DEF-0BF5-F2794DE7E9AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5202,8 +6266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C36829E-C274-49DF-95D4-E8318511F9CD}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5263,6 +6327,9 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
@@ -5298,6 +6365,9 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
@@ -5403,7 +6473,7 @@
         <v>450</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -5450,10 +6520,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2848C461-DB02-413D-AC3C-422114C127E3}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5461,20 +6531,22 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -5491,7 +6563,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>12</v>
@@ -5499,8 +6571,11 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3158</v>
       </c>
@@ -5526,7 +6601,7 @@
         <v>340359</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2802</v>
       </c>
@@ -5552,7 +6627,7 @@
         <v>325371</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2808</v>
       </c>
@@ -5578,7 +6653,7 @@
         <v>317822</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2555</v>
       </c>
@@ -5604,7 +6679,7 @@
         <v>291108</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2546</v>
       </c>
@@ -5630,18 +6705,21 @@
         <v>208659</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3076</v>
       </c>
       <c r="C8">
         <v>547.4</v>
+      </c>
+      <c r="D8">
+        <v>171488</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G1:H1"/>
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
